--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ifnk</t>
+  </si>
+  <si>
+    <t>Ifnar1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ifnk</t>
-  </si>
-  <si>
-    <t>Ifnar1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.057567</v>
+        <v>0.9763769999999999</v>
       </c>
       <c r="H2">
-        <v>0.172701</v>
+        <v>2.929131</v>
       </c>
       <c r="I2">
-        <v>0.03117982548787027</v>
+        <v>0.698356587003376</v>
       </c>
       <c r="J2">
-        <v>0.03250051328683672</v>
+        <v>0.6983565870033759</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.20338333333333</v>
+        <v>16.82700666666667</v>
       </c>
       <c r="N2">
-        <v>63.61015</v>
+        <v>50.48102</v>
       </c>
       <c r="O2">
-        <v>0.1585031951394179</v>
+        <v>0.1252829202765328</v>
       </c>
       <c r="P2">
-        <v>0.1619144072927482</v>
+        <v>0.1283458604125</v>
       </c>
       <c r="Q2">
-        <v>1.22061516835</v>
+        <v>16.42950228818</v>
       </c>
       <c r="R2">
-        <v>10.98553651515</v>
+        <v>147.86552059362</v>
       </c>
       <c r="S2">
-        <v>0.004942101963716899</v>
+        <v>0.08749215261413548</v>
       </c>
       <c r="T2">
-        <v>0.005262301345548256</v>
+        <v>0.08963117703368516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.057567</v>
+        <v>0.9763769999999999</v>
       </c>
       <c r="H3">
-        <v>0.172701</v>
+        <v>2.929131</v>
       </c>
       <c r="I3">
-        <v>0.03117982548787027</v>
+        <v>0.698356587003376</v>
       </c>
       <c r="J3">
-        <v>0.03250051328683672</v>
+        <v>0.6983565870033759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>60.35221800000001</v>
       </c>
       <c r="O3">
-        <v>0.1503851097152057</v>
+        <v>0.1497810883418348</v>
       </c>
       <c r="P3">
-        <v>0.1536216092286016</v>
+        <v>0.1534429642470134</v>
       </c>
       <c r="Q3">
-        <v>1.158098711202</v>
+        <v>19.642172518062</v>
       </c>
       <c r="R3">
-        <v>10.422888400818</v>
+        <v>176.779552662558</v>
       </c>
       <c r="S3">
-        <v>0.004688981476894337</v>
+        <v>0.1046006096520549</v>
       </c>
       <c r="T3">
-        <v>0.004992781151879404</v>
+        <v>0.1071579048112253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.057567</v>
+        <v>0.9763769999999999</v>
       </c>
       <c r="H4">
-        <v>0.172701</v>
+        <v>2.929131</v>
       </c>
       <c r="I4">
-        <v>0.03117982548787027</v>
+        <v>0.698356587003376</v>
       </c>
       <c r="J4">
-        <v>0.03250051328683672</v>
+        <v>0.6983565870033759</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.321269</v>
+        <v>51.48756166666666</v>
       </c>
       <c r="N4">
-        <v>114.963807</v>
+        <v>154.462685</v>
       </c>
       <c r="O4">
-        <v>0.2864657721274259</v>
+        <v>0.3833428138051528</v>
       </c>
       <c r="P4">
-        <v>0.2926309192876121</v>
+        <v>0.3927148502140002</v>
       </c>
       <c r="Q4">
-        <v>2.206040492523</v>
+        <v>50.27127099741499</v>
       </c>
       <c r="R4">
-        <v>19.854364432707</v>
+        <v>452.441438976735</v>
       </c>
       <c r="S4">
-        <v>0.00893195278318115</v>
+        <v>0.2677099791012372</v>
       </c>
       <c r="T4">
-        <v>0.009510655080446281</v>
+        <v>0.2742550024609912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.057567</v>
+        <v>0.9763769999999999</v>
       </c>
       <c r="H5">
-        <v>0.172701</v>
+        <v>2.929131</v>
       </c>
       <c r="I5">
-        <v>0.03117982548787027</v>
+        <v>0.698356587003376</v>
       </c>
       <c r="J5">
-        <v>0.03250051328683672</v>
+        <v>0.6983565870033759</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.4549615</v>
+        <v>9.6159655</v>
       </c>
       <c r="N5">
-        <v>16.909923</v>
+        <v>19.231931</v>
       </c>
       <c r="O5">
-        <v>0.06320398926259876</v>
+        <v>0.07159420941484877</v>
       </c>
       <c r="P5">
-        <v>0.04304281879402911</v>
+        <v>0.04889637197482995</v>
       </c>
       <c r="Q5">
-        <v>0.4867267686705</v>
+        <v>9.388807546993499</v>
       </c>
       <c r="R5">
-        <v>2.920360612023</v>
+        <v>56.332845281961</v>
       </c>
       <c r="S5">
-        <v>0.001970689355345056</v>
+        <v>0.04999828773615875</v>
       </c>
       <c r="T5">
-        <v>0.001398913704118248</v>
+        <v>0.03414710344918977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.057567</v>
+        <v>0.9763769999999999</v>
       </c>
       <c r="H6">
-        <v>0.172701</v>
+        <v>2.929131</v>
       </c>
       <c r="I6">
-        <v>0.03117982548787027</v>
+        <v>0.698356587003376</v>
       </c>
       <c r="J6">
-        <v>0.03250051328683672</v>
+        <v>0.6983565870033759</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.67557266666667</v>
+        <v>36.26411666666667</v>
       </c>
       <c r="N6">
-        <v>137.026718</v>
+        <v>108.79235</v>
       </c>
       <c r="O6">
-        <v>0.3414419337553518</v>
+        <v>0.2699989681616309</v>
       </c>
       <c r="P6">
-        <v>0.348790245397009</v>
+        <v>0.2765999531516566</v>
       </c>
       <c r="Q6">
-        <v>2.629405691702</v>
+        <v>35.40744943865</v>
       </c>
       <c r="R6">
-        <v>23.664651225318</v>
+        <v>318.66704494785</v>
       </c>
       <c r="S6">
-        <v>0.01064609990873283</v>
+        <v>0.1885555578997897</v>
       </c>
       <c r="T6">
-        <v>0.01133586200484453</v>
+        <v>0.1931653992482845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.9442426666666668</v>
+        <v>0.4217296666666667</v>
       </c>
       <c r="H7">
-        <v>2.832728</v>
+        <v>1.265189</v>
       </c>
       <c r="I7">
-        <v>0.5114270600321006</v>
+        <v>0.3016434129966241</v>
       </c>
       <c r="J7">
-        <v>0.5330896404884421</v>
+        <v>0.301643412996624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.20338333333333</v>
+        <v>16.82700666666667</v>
       </c>
       <c r="N7">
-        <v>63.61015</v>
+        <v>50.48102</v>
       </c>
       <c r="O7">
-        <v>0.1585031951394179</v>
+        <v>0.1252829202765328</v>
       </c>
       <c r="P7">
-        <v>0.1619144072927482</v>
+        <v>0.1283458604125</v>
       </c>
       <c r="Q7">
-        <v>20.02113922102223</v>
+        <v>7.096447912531112</v>
       </c>
       <c r="R7">
-        <v>180.1902529892</v>
+        <v>63.86803121278</v>
       </c>
       <c r="S7">
-        <v>0.08106282309584685</v>
+        <v>0.03779076766239731</v>
       </c>
       <c r="T7">
-        <v>0.08631489317359034</v>
+        <v>0.03871468337881478</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.9442426666666668</v>
+        <v>0.4217296666666667</v>
       </c>
       <c r="H8">
-        <v>2.832728</v>
+        <v>1.265189</v>
       </c>
       <c r="I8">
-        <v>0.5114270600321006</v>
+        <v>0.3016434129966241</v>
       </c>
       <c r="J8">
-        <v>0.5330896404884421</v>
+        <v>0.301643412996624</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>60.35221800000001</v>
       </c>
       <c r="O8">
-        <v>0.1503851097152057</v>
+        <v>0.1497810883418348</v>
       </c>
       <c r="P8">
-        <v>0.1536216092286016</v>
+        <v>0.1534429642470134</v>
       </c>
       <c r="Q8">
-        <v>18.995713087856</v>
+        <v>8.484106926578002</v>
       </c>
       <c r="R8">
-        <v>170.961417790704</v>
+        <v>76.35696233920201</v>
       </c>
       <c r="S8">
-        <v>0.07691101453425253</v>
+        <v>0.0451804786897799</v>
       </c>
       <c r="T8">
-        <v>0.08189408843493115</v>
+        <v>0.04628505943578806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.9442426666666668</v>
+        <v>0.4217296666666667</v>
       </c>
       <c r="H9">
-        <v>2.832728</v>
+        <v>1.265189</v>
       </c>
       <c r="I9">
-        <v>0.5114270600321006</v>
+        <v>0.3016434129966241</v>
       </c>
       <c r="J9">
-        <v>0.5330896404884421</v>
+        <v>0.301643412996624</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.321269</v>
+        <v>51.48756166666666</v>
       </c>
       <c r="N9">
-        <v>114.963807</v>
+        <v>154.462685</v>
       </c>
       <c r="O9">
-        <v>0.2864657721274259</v>
+        <v>0.3833428138051528</v>
       </c>
       <c r="P9">
-        <v>0.2926309192876121</v>
+        <v>0.3927148502140002</v>
       </c>
       <c r="Q9">
-        <v>36.18457723061067</v>
+        <v>21.71383221916278</v>
       </c>
       <c r="R9">
-        <v>325.661195075496</v>
+        <v>195.424489972465</v>
       </c>
       <c r="S9">
-        <v>0.1465063476389551</v>
+        <v>0.1156328347039157</v>
       </c>
       <c r="T9">
-        <v>0.1559985115588355</v>
+        <v>0.118459847753009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.9442426666666668</v>
+        <v>0.4217296666666667</v>
       </c>
       <c r="H10">
-        <v>2.832728</v>
+        <v>1.265189</v>
       </c>
       <c r="I10">
-        <v>0.5114270600321006</v>
+        <v>0.3016434129966241</v>
       </c>
       <c r="J10">
-        <v>0.5330896404884421</v>
+        <v>0.301643412996624</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.4549615</v>
+        <v>9.6159655</v>
       </c>
       <c r="N10">
-        <v>16.909923</v>
+        <v>19.231931</v>
       </c>
       <c r="O10">
-        <v>0.06320398926259876</v>
+        <v>0.07159420941484877</v>
       </c>
       <c r="P10">
-        <v>0.04304281879402911</v>
+        <v>0.04889637197482995</v>
       </c>
       <c r="Q10">
-        <v>7.983535393324001</v>
+        <v>4.055337924993167</v>
       </c>
       <c r="R10">
-        <v>47.901212359944</v>
+        <v>24.332027549959</v>
       </c>
       <c r="S10">
-        <v>0.03232423041087134</v>
+        <v>0.02159592167869002</v>
       </c>
       <c r="T10">
-        <v>0.02294568079651814</v>
+        <v>0.01474926852564018</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.9442426666666668</v>
+        <v>0.4217296666666667</v>
       </c>
       <c r="H11">
-        <v>2.832728</v>
+        <v>1.265189</v>
       </c>
       <c r="I11">
-        <v>0.5114270600321006</v>
+        <v>0.3016434129966241</v>
       </c>
       <c r="J11">
-        <v>0.5330896404884421</v>
+        <v>0.301643412996624</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,648 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.67557266666667</v>
+        <v>36.26411666666667</v>
       </c>
       <c r="N11">
-        <v>137.026718</v>
+        <v>108.79235</v>
       </c>
       <c r="O11">
-        <v>0.3414419337553518</v>
+        <v>0.2699989681616309</v>
       </c>
       <c r="P11">
-        <v>0.348790245397009</v>
+        <v>0.2765999531516566</v>
       </c>
       <c r="Q11">
-        <v>43.12882453630046</v>
+        <v>15.29365383379445</v>
       </c>
       <c r="R11">
-        <v>388.1594208267041</v>
+        <v>137.64288450415</v>
       </c>
       <c r="S11">
-        <v>0.1746226443521748</v>
+        <v>0.08144341026184117</v>
       </c>
       <c r="T11">
-        <v>0.1859364665245671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.225077</v>
-      </c>
-      <c r="H12">
-        <v>0.450154</v>
-      </c>
-      <c r="I12">
-        <v>0.1219077176391575</v>
-      </c>
-      <c r="J12">
-        <v>0.08471425213590367</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>21.20338333333333</v>
-      </c>
-      <c r="N12">
-        <v>63.61015</v>
-      </c>
-      <c r="O12">
-        <v>0.1585031951394179</v>
-      </c>
-      <c r="P12">
-        <v>0.1619144072927482</v>
-      </c>
-      <c r="Q12">
-        <v>4.772393910516667</v>
-      </c>
-      <c r="R12">
-        <v>28.6343634631</v>
-      </c>
-      <c r="S12">
-        <v>0.01932276275796044</v>
-      </c>
-      <c r="T12">
-        <v>0.01371645792383327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.225077</v>
-      </c>
-      <c r="H13">
-        <v>0.450154</v>
-      </c>
-      <c r="I13">
-        <v>0.1219077176391575</v>
-      </c>
-      <c r="J13">
-        <v>0.08471425213590367</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>20.117406</v>
-      </c>
-      <c r="N13">
-        <v>60.35221800000001</v>
-      </c>
-      <c r="O13">
-        <v>0.1503851097152057</v>
-      </c>
-      <c r="P13">
-        <v>0.1536216092286016</v>
-      </c>
-      <c r="Q13">
-        <v>4.527965390262001</v>
-      </c>
-      <c r="R13">
-        <v>27.167792341572</v>
-      </c>
-      <c r="S13">
-        <v>0.01833310549229501</v>
-      </c>
-      <c r="T13">
-        <v>0.01301393973771502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.225077</v>
-      </c>
-      <c r="H14">
-        <v>0.450154</v>
-      </c>
-      <c r="I14">
-        <v>0.1219077176391575</v>
-      </c>
-      <c r="J14">
-        <v>0.08471425213590367</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>38.321269</v>
-      </c>
-      <c r="N14">
-        <v>114.963807</v>
-      </c>
-      <c r="O14">
-        <v>0.2864657721274259</v>
-      </c>
-      <c r="P14">
-        <v>0.2926309192876121</v>
-      </c>
-      <c r="Q14">
-        <v>8.625236262713001</v>
-      </c>
-      <c r="R14">
-        <v>51.751417576278</v>
-      </c>
-      <c r="S14">
-        <v>0.03492238846179346</v>
-      </c>
-      <c r="T14">
-        <v>0.02479000947929205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.225077</v>
-      </c>
-      <c r="H15">
-        <v>0.450154</v>
-      </c>
-      <c r="I15">
-        <v>0.1219077176391575</v>
-      </c>
-      <c r="J15">
-        <v>0.08471425213590367</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>8.4549615</v>
-      </c>
-      <c r="N15">
-        <v>16.909923</v>
-      </c>
-      <c r="O15">
-        <v>0.06320398926259876</v>
-      </c>
-      <c r="P15">
-        <v>0.04304281879402911</v>
-      </c>
-      <c r="Q15">
-        <v>1.9030173695355</v>
-      </c>
-      <c r="R15">
-        <v>7.612069478142</v>
-      </c>
-      <c r="S15">
-        <v>0.00770505407669323</v>
-      </c>
-      <c r="T15">
-        <v>0.003646340203957395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.225077</v>
-      </c>
-      <c r="H16">
-        <v>0.450154</v>
-      </c>
-      <c r="I16">
-        <v>0.1219077176391575</v>
-      </c>
-      <c r="J16">
-        <v>0.08471425213590367</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>45.67557266666667</v>
-      </c>
-      <c r="N16">
-        <v>137.026718</v>
-      </c>
-      <c r="O16">
-        <v>0.3414419337553518</v>
-      </c>
-      <c r="P16">
-        <v>0.348790245397009</v>
-      </c>
-      <c r="Q16">
-        <v>10.28052086909534</v>
-      </c>
-      <c r="R16">
-        <v>61.68312521457201</v>
-      </c>
-      <c r="S16">
-        <v>0.04162440685041534</v>
-      </c>
-      <c r="T16">
-        <v>0.02954750479110594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.6194033333333332</v>
-      </c>
-      <c r="H17">
-        <v>1.85821</v>
-      </c>
-      <c r="I17">
-        <v>0.3354853968408719</v>
-      </c>
-      <c r="J17">
-        <v>0.3496955940888175</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>21.20338333333333</v>
-      </c>
-      <c r="N17">
-        <v>63.61015</v>
-      </c>
-      <c r="O17">
-        <v>0.1585031951394179</v>
-      </c>
-      <c r="P17">
-        <v>0.1619144072927482</v>
-      </c>
-      <c r="Q17">
-        <v>13.13344631461111</v>
-      </c>
-      <c r="R17">
-        <v>118.2010168315</v>
-      </c>
-      <c r="S17">
-        <v>0.05317550732189378</v>
-      </c>
-      <c r="T17">
-        <v>0.05662075484977635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.6194033333333332</v>
-      </c>
-      <c r="H18">
-        <v>1.85821</v>
-      </c>
-      <c r="I18">
-        <v>0.3354853968408719</v>
-      </c>
-      <c r="J18">
-        <v>0.3496955940888175</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>20.117406</v>
-      </c>
-      <c r="N18">
-        <v>60.35221800000001</v>
-      </c>
-      <c r="O18">
-        <v>0.1503851097152057</v>
-      </c>
-      <c r="P18">
-        <v>0.1536216092286016</v>
-      </c>
-      <c r="Q18">
-        <v>12.46078833442</v>
-      </c>
-      <c r="R18">
-        <v>112.14709500978</v>
-      </c>
-      <c r="S18">
-        <v>0.05045200821176384</v>
-      </c>
-      <c r="T18">
-        <v>0.05372079990407599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.6194033333333332</v>
-      </c>
-      <c r="H19">
-        <v>1.85821</v>
-      </c>
-      <c r="I19">
-        <v>0.3354853968408719</v>
-      </c>
-      <c r="J19">
-        <v>0.3496955940888175</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>38.321269</v>
-      </c>
-      <c r="N19">
-        <v>114.963807</v>
-      </c>
-      <c r="O19">
-        <v>0.2864657721274259</v>
-      </c>
-      <c r="P19">
-        <v>0.2926309192876121</v>
-      </c>
-      <c r="Q19">
-        <v>23.73632175616333</v>
-      </c>
-      <c r="R19">
-        <v>213.62689580547</v>
-      </c>
-      <c r="S19">
-        <v>0.09610508324349623</v>
-      </c>
-      <c r="T19">
-        <v>0.1023317431690383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.6194033333333332</v>
-      </c>
-      <c r="H20">
-        <v>1.85821</v>
-      </c>
-      <c r="I20">
-        <v>0.3354853968408719</v>
-      </c>
-      <c r="J20">
-        <v>0.3496955940888175</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>8.4549615</v>
-      </c>
-      <c r="N20">
-        <v>16.909923</v>
-      </c>
-      <c r="O20">
-        <v>0.06320398926259876</v>
-      </c>
-      <c r="P20">
-        <v>0.04304281879402911</v>
-      </c>
-      <c r="Q20">
-        <v>5.237031336304999</v>
-      </c>
-      <c r="R20">
-        <v>31.42218801782999</v>
-      </c>
-      <c r="S20">
-        <v>0.02120401541968915</v>
-      </c>
-      <c r="T20">
-        <v>0.01505188408943533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.6194033333333332</v>
-      </c>
-      <c r="H21">
-        <v>1.85821</v>
-      </c>
-      <c r="I21">
-        <v>0.3354853968408719</v>
-      </c>
-      <c r="J21">
-        <v>0.3496955940888175</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>45.67557266666667</v>
-      </c>
-      <c r="N21">
-        <v>137.026718</v>
-      </c>
-      <c r="O21">
-        <v>0.3414419337553518</v>
-      </c>
-      <c r="P21">
-        <v>0.348790245397009</v>
-      </c>
-      <c r="Q21">
-        <v>28.29160196164222</v>
-      </c>
-      <c r="R21">
-        <v>254.62441765478</v>
-      </c>
-      <c r="S21">
-        <v>0.1145487826440289</v>
-      </c>
-      <c r="T21">
-        <v>0.1219704120764915</v>
+        <v>0.083434553903372</v>
       </c>
     </row>
   </sheetData>
